--- a/DS_Algo_Common/src/main/resources/data.xlsx
+++ b/DS_Algo_Common/src/main/resources/data.xlsx
@@ -24,16 +24,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
+    <t>Nithya26</t>
+  </si>
+  <si>
+    <t>Numpyninja</t>
+  </si>
+  <si>
+    <t>Confirmation password</t>
+  </si>
+  <si>
+    <t>Numpy</t>
   </si>
 </sst>
 </file>
@@ -368,10 +368,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -381,15 +385,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
